--- a/data/trans_orig/CoTrAQ_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ_R2-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>59143</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46404</v>
+        <v>45727</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75916</v>
+        <v>73142</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2182512989223642</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1712385715972178</v>
+        <v>0.1687403461754569</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2801437214595838</v>
+        <v>0.2699078048859426</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -763,19 +763,19 @@
         <v>45354</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34043</v>
+        <v>33750</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59887</v>
+        <v>59880</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2117402468981788</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1589338760277008</v>
+        <v>0.1575666760891115</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2795888206137069</v>
+        <v>0.2795592790162307</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -784,19 +784,19 @@
         <v>104497</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88369</v>
+        <v>87519</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124003</v>
+        <v>124765</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2153768508669891</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1821359589413354</v>
+        <v>0.1803830905219912</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2555796723724392</v>
+        <v>0.2571504532388155</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>211845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>195072</v>
+        <v>197846</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>224584</v>
+        <v>225261</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7817487010776358</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7198562785404161</v>
+        <v>0.7300921951140574</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8287614284027822</v>
+        <v>0.831259653824543</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>156</v>
@@ -834,19 +834,19 @@
         <v>168841</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>154308</v>
+        <v>154315</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>180152</v>
+        <v>180445</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7882597531018213</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7204111793862934</v>
+        <v>0.7204407209837694</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8410661239722992</v>
+        <v>0.8424333239108889</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>355</v>
@@ -855,19 +855,19 @@
         <v>380686</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>361180</v>
+        <v>360418</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>396814</v>
+        <v>397664</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7846231491330109</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7444203276275608</v>
+        <v>0.7428495467611844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8178640410586646</v>
+        <v>0.8196169094780088</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>50754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38352</v>
+        <v>37842</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66327</v>
+        <v>66035</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1363484514486441</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1030332303780639</v>
+        <v>0.1016609573524148</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1781872841993249</v>
+        <v>0.1774024379652859</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -980,19 +980,19 @@
         <v>50274</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38096</v>
+        <v>37782</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64771</v>
+        <v>64342</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2076116448279176</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1573199166118264</v>
+        <v>0.1560240234538228</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2674749335358431</v>
+        <v>0.2657037682954502</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -1001,19 +1001,19 @@
         <v>101028</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84921</v>
+        <v>83411</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120925</v>
+        <v>121798</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1644361892908308</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1382207131548205</v>
+        <v>0.1357624705958872</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1968204960156799</v>
+        <v>0.1982429394493491</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>321480</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>305907</v>
+        <v>306199</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>333882</v>
+        <v>334392</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.863651548551356</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8218127158006751</v>
+        <v>0.822597562034714</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8969667696219361</v>
+        <v>0.8983390426475851</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>177</v>
@@ -1051,19 +1051,19 @@
         <v>191882</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>177385</v>
+        <v>177814</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>204060</v>
+        <v>204374</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7923883551720824</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7325250664641569</v>
+        <v>0.7342962317045501</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8426800833881736</v>
+        <v>0.8439759765461776</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>486</v>
@@ -1072,19 +1072,19 @@
         <v>513362</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>493465</v>
+        <v>492592</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>529469</v>
+        <v>530979</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8355638107091692</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8031795039843201</v>
+        <v>0.8017570605506509</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8617792868451796</v>
+        <v>0.8642375294041128</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>49320</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36558</v>
+        <v>37497</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63558</v>
+        <v>64465</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1121266021019688</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08311238762348873</v>
+        <v>0.08524840550641165</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1444962380646966</v>
+        <v>0.1465582922751784</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -1197,19 +1197,19 @@
         <v>35696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24980</v>
+        <v>26259</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48804</v>
+        <v>50029</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1334357776529916</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09337603571123852</v>
+        <v>0.09815713159496386</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1824331569592798</v>
+        <v>0.187013989794777</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>78</v>
@@ -1218,19 +1218,19 @@
         <v>85016</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66511</v>
+        <v>67722</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104375</v>
+        <v>105133</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1201853489241689</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09402466696565753</v>
+        <v>0.09573623629118662</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1475528946065891</v>
+        <v>0.1486234023707503</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>390539</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>376301</v>
+        <v>375394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>403301</v>
+        <v>402362</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8878733978980312</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8555037619353034</v>
+        <v>0.8534417077248216</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9168876123765113</v>
+        <v>0.9147515944935882</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>219</v>
@@ -1268,19 +1268,19 @@
         <v>231821</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>218713</v>
+        <v>217488</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>242537</v>
+        <v>241258</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8665642223470085</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8175668430407201</v>
+        <v>0.812986010205223</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9066239642887616</v>
+        <v>0.9018428684050362</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>591</v>
@@ -1289,19 +1289,19 @@
         <v>622360</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>603001</v>
+        <v>602243</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>640865</v>
+        <v>639654</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8798146510758311</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.852447105393411</v>
+        <v>0.8513765976292497</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9059753330343424</v>
+        <v>0.9042637637088133</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>23817</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15765</v>
+        <v>15319</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35196</v>
+        <v>34408</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08253764518109025</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05463618190427134</v>
+        <v>0.05308930845033552</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1219739395553574</v>
+        <v>0.1192420117238734</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1414,19 +1414,19 @@
         <v>22243</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14073</v>
+        <v>13591</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32835</v>
+        <v>33346</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1264353031303561</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07999376988118576</v>
+        <v>0.07725655317949252</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1866415055180084</v>
+        <v>0.1895486656471177</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -1435,19 +1435,19 @@
         <v>46060</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34111</v>
+        <v>33627</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62284</v>
+        <v>63295</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09916410842512016</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0734392934081631</v>
+        <v>0.07239657603527368</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.13409531534986</v>
+        <v>0.1362709779749381</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>264737</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>253358</v>
+        <v>254146</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>272789</v>
+        <v>273235</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9174623548189098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8780260604446424</v>
+        <v>0.8807579882761265</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9453638180957286</v>
+        <v>0.9469106915496643</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>141</v>
@@ -1485,19 +1485,19 @@
         <v>153680</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>143088</v>
+        <v>142577</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>161850</v>
+        <v>162332</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8735646968696439</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8133584944819916</v>
+        <v>0.8104513343528823</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9200062301188142</v>
+        <v>0.9227434468205075</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>381</v>
@@ -1506,19 +1506,19 @@
         <v>418418</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>402194</v>
+        <v>401183</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>430367</v>
+        <v>430851</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9008358915748799</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.86590468465014</v>
+        <v>0.8637290220250621</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.926560706591837</v>
+        <v>0.9276034239647265</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>183033</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>159399</v>
+        <v>159225</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210367</v>
+        <v>212355</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.133441804170215</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1162110731863904</v>
+        <v>0.1160838393591114</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1533692428958954</v>
+        <v>0.1548191248237296</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>137</v>
@@ -1631,19 +1631,19 @@
         <v>153567</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>128929</v>
+        <v>130833</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>178113</v>
+        <v>180721</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1706699721951749</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1432873827174502</v>
+        <v>0.1454042490099235</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1979488521970956</v>
+        <v>0.2008473263726914</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>307</v>
@@ -1652,19 +1652,19 @@
         <v>336601</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>302497</v>
+        <v>306087</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>375539</v>
+        <v>375857</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1481891770335363</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1331749453691798</v>
+        <v>0.1347553669655301</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1653316463039468</v>
+        <v>0.1654719451235456</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>1188602</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1161268</v>
+        <v>1159280</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1212236</v>
+        <v>1212410</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.866558195829785</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8466307571041046</v>
+        <v>0.8451808751762704</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8837889268136097</v>
+        <v>0.8839161606408886</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>693</v>
@@ -1702,19 +1702,19 @@
         <v>746224</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>721678</v>
+        <v>719070</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>770862</v>
+        <v>768958</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8293300278048251</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8020511478029048</v>
+        <v>0.7991526736273087</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8567126172825499</v>
+        <v>0.8545957509900766</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1813</v>
@@ -1723,19 +1723,19 @@
         <v>1934825</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1895887</v>
+        <v>1895569</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1968929</v>
+        <v>1965339</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8518108229664637</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8346683536960533</v>
+        <v>0.8345280548764544</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8668250546308204</v>
+        <v>0.86524463303447</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>95778</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79926</v>
+        <v>80290</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>114373</v>
+        <v>112946</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3262445276342302</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2722485578354464</v>
+        <v>0.273487658529925</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3895824135165286</v>
+        <v>0.3847206638566995</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>104</v>
@@ -2088,19 +2088,19 @@
         <v>105475</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>89794</v>
+        <v>89955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123472</v>
+        <v>122038</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3804602043966296</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3238948277904976</v>
+        <v>0.3244770831900474</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4453756117695198</v>
+        <v>0.4402022048499807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>190</v>
@@ -2109,19 +2109,19 @@
         <v>201254</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>177810</v>
+        <v>179254</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>225470</v>
+        <v>227341</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3525760296357383</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3115045755342096</v>
+        <v>0.3140352430076631</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3950013544650987</v>
+        <v>0.3982792690223313</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>197800</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>179205</v>
+        <v>180632</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>213652</v>
+        <v>213288</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6737554723657698</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6104175864834714</v>
+        <v>0.6152793361433008</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7277514421645536</v>
+        <v>0.7265123414700755</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>166</v>
@@ -2159,19 +2159,19 @@
         <v>171756</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>153759</v>
+        <v>155193</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>187437</v>
+        <v>187276</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6195397956033704</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5546243882304798</v>
+        <v>0.5597977951500194</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6761051722095023</v>
+        <v>0.6755229168099527</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>349</v>
@@ -2180,19 +2180,19 @@
         <v>369555</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>345339</v>
+        <v>343468</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>392999</v>
+        <v>391555</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6474239703642617</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6049986455349013</v>
+        <v>0.6017207309776686</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6884954244657904</v>
+        <v>0.6859647569923368</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>102833</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85496</v>
+        <v>86555</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>121071</v>
+        <v>122347</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2633533592312653</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2189540104311347</v>
+        <v>0.2216663804885377</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3100627072251623</v>
+        <v>0.3133306913581824</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -2305,19 +2305,19 @@
         <v>83607</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69115</v>
+        <v>68939</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98847</v>
+        <v>99260</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3095955097893126</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2559298804702843</v>
+        <v>0.2552802137431472</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3660278701676355</v>
+        <v>0.3675586860187018</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>177</v>
@@ -2326,19 +2326,19 @@
         <v>186440</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>163778</v>
+        <v>161668</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>210773</v>
+        <v>208786</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2822591979957014</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2479502966514436</v>
+        <v>0.2447560221235799</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3190975811542884</v>
+        <v>0.3160905498872144</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>287641</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>269403</v>
+        <v>268127</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>304978</v>
+        <v>303919</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7366466407687348</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.689937292774838</v>
+        <v>0.6866693086418151</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7810459895688654</v>
+        <v>0.7783336195114615</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>181</v>
@@ -2376,19 +2376,19 @@
         <v>186446</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>171206</v>
+        <v>170793</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>200938</v>
+        <v>201114</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6904044902106874</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6339721298323645</v>
+        <v>0.6324413139812978</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7440701195297157</v>
+        <v>0.7447197862568528</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>457</v>
@@ -2397,19 +2397,19 @@
         <v>474087</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>449754</v>
+        <v>451741</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>496749</v>
+        <v>498859</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7177408020042986</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6809024188457116</v>
+        <v>0.6839094501127856</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7520497033485565</v>
+        <v>0.7552439778764199</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>85546</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68217</v>
+        <v>68783</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101615</v>
+        <v>102198</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1875243949462264</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1495375186451309</v>
+        <v>0.1507785618264828</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2227481640624708</v>
+        <v>0.2240262660973718</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -2522,19 +2522,19 @@
         <v>69176</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55379</v>
+        <v>55023</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>84171</v>
+        <v>84089</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2380176144724632</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1905453665209255</v>
+        <v>0.1893199037050336</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2896118556616095</v>
+        <v>0.2893300351984047</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>148</v>
@@ -2543,19 +2543,19 @@
         <v>154723</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132339</v>
+        <v>131968</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>177130</v>
+        <v>176007</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.207174422707605</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1772028558778527</v>
+        <v>0.1767051824545887</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2371773622956425</v>
+        <v>0.235673763310713</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>370642</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>354573</v>
+        <v>353990</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>387971</v>
+        <v>387405</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8124756050537736</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.77725183593753</v>
+        <v>0.7759737339026281</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.850462481354869</v>
+        <v>0.8492214381735171</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>221</v>
@@ -2593,19 +2593,19 @@
         <v>221459</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>206464</v>
+        <v>206546</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>235256</v>
+        <v>235612</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7619823855275368</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.710388144338391</v>
+        <v>0.7106699648015958</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8094546334790745</v>
+        <v>0.8106800962949664</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>570</v>
@@ -2614,19 +2614,19 @@
         <v>592101</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>569694</v>
+        <v>570817</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>614485</v>
+        <v>614856</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.792825577292395</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7628226377043575</v>
+        <v>0.764326236689287</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8227971441221474</v>
+        <v>0.8232948175454112</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>59437</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46788</v>
+        <v>45817</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75273</v>
+        <v>74397</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2160190898275182</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1700461131636053</v>
+        <v>0.1665165257737827</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2735709896501251</v>
+        <v>0.2703891197713276</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -2739,19 +2739,19 @@
         <v>39430</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28381</v>
+        <v>29614</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51664</v>
+        <v>53166</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2031805729305896</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1462441425572303</v>
+        <v>0.1526014731676152</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2662252832746052</v>
+        <v>0.273960345812128</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>91</v>
@@ -2760,19 +2760,19 @@
         <v>98867</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82172</v>
+        <v>81470</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118949</v>
+        <v>119372</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2107091669796461</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1751276092673344</v>
+        <v>0.1736316303714269</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2535088423130842</v>
+        <v>0.2544092509458413</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>215712</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>199876</v>
+        <v>200752</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>228361</v>
+        <v>229332</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7839809101724817</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7264290103498749</v>
+        <v>0.7296108802286727</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8299538868363947</v>
+        <v>0.8334834742262173</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>147</v>
@@ -2810,19 +2810,19 @@
         <v>154633</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>142399</v>
+        <v>140897</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>165682</v>
+        <v>164449</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7968194270694103</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7337747167253942</v>
+        <v>0.7260396541878728</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8537558574427695</v>
+        <v>0.8473985268323858</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>342</v>
@@ -2831,19 +2831,19 @@
         <v>370345</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>350263</v>
+        <v>349840</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>387040</v>
+        <v>387742</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7892908330203539</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7464911576869165</v>
+        <v>0.7455907490541587</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8248723907326657</v>
+        <v>0.8263683696285732</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>343595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>307747</v>
+        <v>311295</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>377930</v>
+        <v>377545</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2427563368096962</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2174292012423319</v>
+        <v>0.2199361790532236</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2670150240132039</v>
+        <v>0.2667426682929112</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>293</v>
@@ -2956,19 +2956,19 @@
         <v>297689</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>267777</v>
+        <v>271659</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>326753</v>
+        <v>328715</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2884629814004714</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2594779409927973</v>
+        <v>0.2632397326101238</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3166267874905435</v>
+        <v>0.3185282604490743</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>606</v>
@@ -2977,19 +2977,19 @@
         <v>641283</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>597019</v>
+        <v>600639</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>683218</v>
+        <v>688816</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.262029427323299</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2439428498337896</v>
+        <v>0.2454221112000954</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2791640495709489</v>
+        <v>0.2814513653816558</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>1071795</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1037460</v>
+        <v>1037845</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1107643</v>
+        <v>1104095</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7572436631903038</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7329849759867962</v>
+        <v>0.7332573317070888</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7825707987576681</v>
+        <v>0.7800638209467764</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>715</v>
@@ -3027,19 +3027,19 @@
         <v>734293</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>705229</v>
+        <v>703267</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>764205</v>
+        <v>760323</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7115370185995286</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6833732125094566</v>
+        <v>0.6814717395509258</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7405220590072029</v>
+        <v>0.7367602673898761</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1718</v>
@@ -3048,19 +3048,19 @@
         <v>1806089</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1764154</v>
+        <v>1758556</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1850353</v>
+        <v>1846733</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.737970572676701</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7208359504290512</v>
+        <v>0.7185486346183442</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7560571501662106</v>
+        <v>0.7545778887999046</v>
       </c>
     </row>
     <row r="18">
